--- a/lost_weight/DEPURADA BASE DE DATOS PERDIDA DE PESO.xlsx
+++ b/lost_weight/DEPURADA BASE DE DATOS PERDIDA DE PESO.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">Porcentaje_de_perdida</t>
   </si>
   <si>
-    <t xml:space="preserve">Tiempo_de_perdida_(meses)</t>
+    <t xml:space="preserve">Tiempo_de_perdida_meses</t>
   </si>
   <si>
     <t xml:space="preserve">Escolaridad</t>
@@ -1044,11 +1044,11 @@
   </sheetPr>
   <dimension ref="A1:EF51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DW1" activeCellId="0" sqref="DV:DW"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DV1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="DV7" activeCellId="0" sqref="DV7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.52"/>
@@ -20383,10 +20383,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="DV:DW A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -20406,10 +20406,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="DV:DW A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
